--- a/team_specific_matrix/Southern Utah_B.xlsx
+++ b/team_specific_matrix/Southern Utah_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1870748299319728</v>
       </c>
       <c r="C2">
-        <v>0.516</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.028</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.152</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.104</v>
+        <v>0.1292517006802721</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006578947368421052</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C3">
-        <v>0.03947368421052631</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09210526315789473</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7105263157894737</v>
+        <v>0.7062146892655368</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1513157894736842</v>
+        <v>0.1638418079096045</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1904761904761905</v>
+        <v>0.16</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6904761904761905</v>
+        <v>0.72</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.119047619047619</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05376344086021505</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01075268817204301</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06451612903225806</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2956989247311828</v>
+        <v>0.3031674208144796</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03225806451612903</v>
+        <v>0.03619909502262444</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2580645161290323</v>
+        <v>0.2398190045248869</v>
       </c>
       <c r="R6">
-        <v>0.03225806451612903</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="S6">
-        <v>0.2526881720430108</v>
+        <v>0.253393665158371</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1398963730569948</v>
+        <v>0.1422222222222222</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01036269430051814</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05699481865284974</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1813471502590674</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005181347150259068</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1761658031088083</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="R7">
-        <v>0.04663212435233161</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="S7">
-        <v>0.383419689119171</v>
+        <v>0.3688888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09113924050632911</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02278481012658228</v>
+        <v>0.025</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05569620253164557</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1113924050632911</v>
+        <v>0.10625</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01265822784810127</v>
+        <v>0.01458333333333333</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2708860759493671</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="R8">
-        <v>0.06582278481012659</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="S8">
-        <v>0.369620253164557</v>
+        <v>0.36875</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06779661016949153</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008474576271186441</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1016949152542373</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1694915254237288</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0423728813559322</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1694915254237288</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="R9">
-        <v>0.05084745762711865</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="S9">
-        <v>0.3898305084745763</v>
+        <v>0.3892617449664429</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09937888198757763</v>
+        <v>0.09647779479326186</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0230700976042591</v>
+        <v>0.02297090352220521</v>
       </c>
       <c r="E10">
-        <v>0.001774622892635315</v>
+        <v>0.001531393568147014</v>
       </c>
       <c r="F10">
-        <v>0.06299911268855368</v>
+        <v>0.06202143950995406</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1215616681455191</v>
+        <v>0.1179173047473201</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02661934338952972</v>
+        <v>0.02833078101071975</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2555456965394853</v>
+        <v>0.2580398162327718</v>
       </c>
       <c r="R10">
-        <v>0.06211180124223602</v>
+        <v>0.0666156202143951</v>
       </c>
       <c r="S10">
-        <v>0.3469387755102041</v>
+        <v>0.3460949464012251</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003690036900369004</v>
+        <v>0.003067484662576687</v>
       </c>
       <c r="G11">
-        <v>0.1180811808118081</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0996309963099631</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="K11">
-        <v>0.1845018450184502</v>
+        <v>0.1809815950920245</v>
       </c>
       <c r="L11">
-        <v>0.5904059040590406</v>
+        <v>0.588957055214724</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003690036900369004</v>
+        <v>0.006134969325153374</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7738095238095238</v>
+        <v>0.76</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1726190476190476</v>
+        <v>0.18</v>
       </c>
       <c r="K12">
-        <v>0.005952380952380952</v>
+        <v>0.01</v>
       </c>
       <c r="L12">
-        <v>0.03571428571428571</v>
+        <v>0.03</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0119047619047619</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7674418604651163</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2093023255813954</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>0.175</v>
       </c>
       <c r="I15">
-        <v>0.07000000000000001</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="J15">
-        <v>0.38</v>
+        <v>0.3708333333333333</v>
       </c>
       <c r="K15">
-        <v>0.05</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.015</v>
+        <v>0.0125</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.265</v>
+        <v>0.2791666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02380952380952381</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1607142857142857</v>
+        <v>0.171875</v>
       </c>
       <c r="I16">
-        <v>0.05952380952380952</v>
+        <v>0.0625</v>
       </c>
       <c r="J16">
-        <v>0.3988095238095238</v>
+        <v>0.3854166666666667</v>
       </c>
       <c r="K16">
-        <v>0.125</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02380952380952381</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04761904761904762</v>
+        <v>0.046875</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1607142857142857</v>
+        <v>0.1614583333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01616161616161616</v>
+        <v>0.02086956521739131</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1898989898989899</v>
+        <v>0.1878260869565217</v>
       </c>
       <c r="I17">
-        <v>0.05252525252525252</v>
+        <v>0.05391304347826087</v>
       </c>
       <c r="J17">
-        <v>0.4121212121212121</v>
+        <v>0.4052173913043478</v>
       </c>
       <c r="K17">
-        <v>0.09898989898989899</v>
+        <v>0.09913043478260869</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02222222222222222</v>
+        <v>0.02260869565217391</v>
       </c>
       <c r="N17">
-        <v>0.00202020202020202</v>
+        <v>0.001739130434782609</v>
       </c>
       <c r="O17">
-        <v>0.0707070707070707</v>
+        <v>0.07652173913043478</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1353535353535354</v>
+        <v>0.1321739130434783</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01639344262295082</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1885245901639344</v>
+        <v>0.2012987012987013</v>
       </c>
       <c r="I18">
-        <v>0.05737704918032787</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="J18">
-        <v>0.4180327868852459</v>
+        <v>0.3831168831168831</v>
       </c>
       <c r="K18">
-        <v>0.139344262295082</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="O18">
-        <v>0.07377049180327869</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1065573770491803</v>
+        <v>0.1298701298701299</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02261553588987217</v>
+        <v>0.01975308641975309</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2123893805309734</v>
+        <v>0.2197530864197531</v>
       </c>
       <c r="I19">
-        <v>0.05899705014749262</v>
+        <v>0.06502057613168724</v>
       </c>
       <c r="J19">
-        <v>0.3638151425762045</v>
+        <v>0.3547325102880658</v>
       </c>
       <c r="K19">
-        <v>0.1258603736479843</v>
+        <v>0.1300411522633745</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02458210422812193</v>
+        <v>0.02304526748971194</v>
       </c>
       <c r="N19">
-        <v>0.002949852507374631</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="O19">
-        <v>0.07472959685349066</v>
+        <v>0.07160493827160494</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1140609636184857</v>
+        <v>0.1135802469135802</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern Utah_B.xlsx
+++ b/team_specific_matrix/Southern Utah_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1870748299319728</v>
+        <v>0.1872909698996655</v>
       </c>
       <c r="C2">
-        <v>0.5238095238095238</v>
+        <v>0.5250836120401338</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02380952380952381</v>
+        <v>0.02341137123745819</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1360544217687075</v>
+        <v>0.1337792642140468</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1292517006802721</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C3">
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07909604519774012</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7062146892655368</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1638418079096045</v>
+        <v>0.1611111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.16</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.72</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.12</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06334841628959276</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009049773755656109</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06787330316742081</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3031674208144796</v>
+        <v>0.2956521739130435</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03619909502262444</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2398190045248869</v>
+        <v>0.2521739130434782</v>
       </c>
       <c r="R6">
-        <v>0.02714932126696833</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="S6">
-        <v>0.253393665158371</v>
+        <v>0.2434782608695652</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1422222222222222</v>
+        <v>0.1397379912663755</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008888888888888889</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06666666666666667</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1733333333333333</v>
+        <v>0.1746724890829694</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.004444444444444444</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1733333333333333</v>
+        <v>0.1790393013100437</v>
       </c>
       <c r="R7">
-        <v>0.06222222222222222</v>
+        <v>0.0611353711790393</v>
       </c>
       <c r="S7">
-        <v>0.3688888888888889</v>
+        <v>0.3668122270742358</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.025</v>
+        <v>0.02610441767068273</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05416666666666667</v>
+        <v>0.05622489959839357</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.10625</v>
+        <v>0.106425702811245</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01458333333333333</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2604166666666667</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="R8">
-        <v>0.07083333333333333</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="S8">
-        <v>0.36875</v>
+        <v>0.3654618473895582</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0738255033557047</v>
+        <v>0.07096774193548387</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01342281879194631</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1006711409395973</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1879194630872483</v>
+        <v>0.1870967741935484</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04026845637583892</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1476510067114094</v>
+        <v>0.1419354838709677</v>
       </c>
       <c r="R9">
-        <v>0.04697986577181208</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="S9">
-        <v>0.3892617449664429</v>
+        <v>0.3935483870967742</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09647779479326186</v>
+        <v>0.09527326440177253</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02297090352220521</v>
+        <v>0.02289512555391433</v>
       </c>
       <c r="E10">
-        <v>0.001531393568147014</v>
+        <v>0.001477104874446086</v>
       </c>
       <c r="F10">
-        <v>0.06202143950995406</v>
+        <v>0.06425406203840472</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1179173047473201</v>
+        <v>0.1189069423929099</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02833078101071975</v>
+        <v>0.02880354505169867</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2580398162327718</v>
+        <v>0.2548005908419498</v>
       </c>
       <c r="R10">
-        <v>0.0666156202143951</v>
+        <v>0.06646971935007386</v>
       </c>
       <c r="S10">
-        <v>0.3460949464012251</v>
+        <v>0.3471196454948302</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003067484662576687</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="G11">
-        <v>0.1226993865030675</v>
+        <v>0.1234939759036145</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09815950920245399</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="K11">
-        <v>0.1809815950920245</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L11">
-        <v>0.588957055214724</v>
+        <v>0.5903614457831325</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006134969325153374</v>
+        <v>0.006024096385542169</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.76</v>
+        <v>0.7598039215686274</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.18</v>
+        <v>0.1813725490196078</v>
       </c>
       <c r="K12">
-        <v>0.01</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L12">
-        <v>0.03</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7659574468085106</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2127659574468085</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02083333333333333</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.175</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="I15">
-        <v>0.07083333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J15">
-        <v>0.3708333333333333</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="K15">
-        <v>0.04583333333333333</v>
+        <v>0.04365079365079365</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0125</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.025</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2791666666666667</v>
+        <v>0.2817460317460317</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02083333333333333</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.171875</v>
+        <v>0.1776649746192893</v>
       </c>
       <c r="I16">
-        <v>0.0625</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="J16">
-        <v>0.3854166666666667</v>
+        <v>0.3807106598984771</v>
       </c>
       <c r="K16">
-        <v>0.1302083333333333</v>
+        <v>0.1319796954314721</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02083333333333333</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.046875</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1614583333333333</v>
+        <v>0.1624365482233502</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02086956521739131</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1878260869565217</v>
+        <v>0.1876046901172529</v>
       </c>
       <c r="I17">
-        <v>0.05391304347826087</v>
+        <v>0.05695142378559464</v>
       </c>
       <c r="J17">
-        <v>0.4052173913043478</v>
+        <v>0.407035175879397</v>
       </c>
       <c r="K17">
-        <v>0.09913043478260869</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02260869565217391</v>
+        <v>0.02177554438860971</v>
       </c>
       <c r="N17">
-        <v>0.001739130434782609</v>
+        <v>0.001675041876046901</v>
       </c>
       <c r="O17">
-        <v>0.07652173913043478</v>
+        <v>0.07872696817420435</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1321739130434783</v>
+        <v>0.1306532663316583</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01298701298701299</v>
+        <v>0.0125</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2012987012987013</v>
+        <v>0.20625</v>
       </c>
       <c r="I18">
-        <v>0.06493506493506493</v>
+        <v>0.0625</v>
       </c>
       <c r="J18">
-        <v>0.3831168831168831</v>
+        <v>0.38125</v>
       </c>
       <c r="K18">
-        <v>0.1233766233766234</v>
+        <v>0.11875</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.00625</v>
       </c>
       <c r="N18">
-        <v>0.006493506493506494</v>
+        <v>0.00625</v>
       </c>
       <c r="O18">
-        <v>0.07792207792207792</v>
+        <v>0.08125</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1298701298701299</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01975308641975309</v>
+        <v>0.01916932907348243</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2197530864197531</v>
+        <v>0.2196485623003195</v>
       </c>
       <c r="I19">
-        <v>0.06502057613168724</v>
+        <v>0.06469648562300319</v>
       </c>
       <c r="J19">
-        <v>0.3547325102880658</v>
+        <v>0.3578274760383386</v>
       </c>
       <c r="K19">
-        <v>0.1300411522633745</v>
+        <v>0.1293929712460064</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02304526748971194</v>
+        <v>0.0231629392971246</v>
       </c>
       <c r="N19">
-        <v>0.002469135802469136</v>
+        <v>0.002396166134185303</v>
       </c>
       <c r="O19">
-        <v>0.07160493827160494</v>
+        <v>0.07108626198083066</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1135802469135802</v>
+        <v>0.1126198083067093</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southern Utah_B.xlsx
+++ b/team_specific_matrix/Southern Utah_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1872909698996655</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="C2">
-        <v>0.5250836120401338</v>
+        <v>0.5235109717868338</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02341137123745819</v>
+        <v>0.0219435736677116</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1337792642140468</v>
+        <v>0.1316614420062696</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1304347826086956</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01666666666666667</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="C3">
-        <v>0.03333333333333333</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07777777777777778</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7111111111111111</v>
+        <v>0.7120418848167539</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1611111111111111</v>
+        <v>0.162303664921466</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1538461538461539</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7307692307692307</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1153846153846154</v>
+        <v>0.1206896551724138</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06521739130434782</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008695652173913044</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06521739130434782</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2956521739130435</v>
+        <v>0.3048780487804878</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0391304347826087</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2521739130434782</v>
+        <v>0.2479674796747967</v>
       </c>
       <c r="R6">
-        <v>0.03043478260869565</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="S6">
-        <v>0.2434782608695652</v>
+        <v>0.2479674796747967</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1397379912663755</v>
+        <v>0.1346938775510204</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008733624454148471</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06550218340611354</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1746724890829694</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.004366812227074236</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1790393013100437</v>
+        <v>0.1795918367346939</v>
       </c>
       <c r="R7">
-        <v>0.0611353711790393</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="S7">
-        <v>0.3668122270742358</v>
+        <v>0.363265306122449</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0963855421686747</v>
+        <v>0.1043643263757116</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02610441767068273</v>
+        <v>0.02656546489563567</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05622489959839357</v>
+        <v>0.05502846299810247</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.106425702811245</v>
+        <v>0.1024667931688805</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01606425702811245</v>
+        <v>0.01518026565464896</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2650602409638554</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="R8">
-        <v>0.06827309236947791</v>
+        <v>0.07020872865275142</v>
       </c>
       <c r="S8">
-        <v>0.3654618473895582</v>
+        <v>0.3681214421252372</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07096774193548387</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01290322580645161</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09677419354838709</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1870967741935484</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03870967741935484</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1419354838709677</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.05806451612903226</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="S9">
-        <v>0.3935483870967742</v>
+        <v>0.3869047619047619</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09527326440177253</v>
+        <v>0.09327846364883402</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02289512555391433</v>
+        <v>0.02400548696844993</v>
       </c>
       <c r="E10">
-        <v>0.001477104874446086</v>
+        <v>0.001371742112482853</v>
       </c>
       <c r="F10">
-        <v>0.06425406203840472</v>
+        <v>0.06515775034293553</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1189069423929099</v>
+        <v>0.1179698216735254</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02880354505169867</v>
+        <v>0.02812071330589849</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2548005908419498</v>
+        <v>0.2578875171467764</v>
       </c>
       <c r="R10">
-        <v>0.06646971935007386</v>
+        <v>0.06927297668038408</v>
       </c>
       <c r="S10">
-        <v>0.3471196454948302</v>
+        <v>0.3429355281207133</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003012048192771084</v>
+        <v>0.002801120448179272</v>
       </c>
       <c r="G11">
-        <v>0.1234939759036145</v>
+        <v>0.123249299719888</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0963855421686747</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="K11">
-        <v>0.1807228915662651</v>
+        <v>0.1820728291316527</v>
       </c>
       <c r="L11">
-        <v>0.5903614457831325</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006024096385542169</v>
+        <v>0.005602240896358543</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7598039215686274</v>
+        <v>0.7420814479638009</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1813725490196078</v>
+        <v>0.1855203619909502</v>
       </c>
       <c r="K12">
-        <v>0.009803921568627451</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="L12">
-        <v>0.02941176470588235</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0196078431372549</v>
+        <v>0.02262443438914027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7346938775510204</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2448979591836735</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01984126984126984</v>
+        <v>0.02230483271375465</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1746031746031746</v>
+        <v>0.1672862453531599</v>
       </c>
       <c r="I15">
-        <v>0.07142857142857142</v>
+        <v>0.07434944237918216</v>
       </c>
       <c r="J15">
-        <v>0.3690476190476191</v>
+        <v>0.3717472118959108</v>
       </c>
       <c r="K15">
-        <v>0.04365079365079365</v>
+        <v>0.04460966542750929</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0119047619047619</v>
+        <v>0.01115241635687732</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02777777777777778</v>
+        <v>0.02973977695167286</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2817460317460317</v>
+        <v>0.2788104089219331</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02030456852791878</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1776649746192893</v>
+        <v>0.1933962264150944</v>
       </c>
       <c r="I16">
-        <v>0.06091370558375635</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="J16">
-        <v>0.3807106598984771</v>
+        <v>0.3679245283018868</v>
       </c>
       <c r="K16">
-        <v>0.1319796954314721</v>
+        <v>0.1367924528301887</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02030456852791878</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04568527918781726</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1624365482233502</v>
+        <v>0.1556603773584906</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02010050251256281</v>
+        <v>0.02021772939346812</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1876046901172529</v>
+        <v>0.1866251944012442</v>
       </c>
       <c r="I17">
-        <v>0.05695142378559464</v>
+        <v>0.05909797822706065</v>
       </c>
       <c r="J17">
-        <v>0.407035175879397</v>
+        <v>0.4059097978227061</v>
       </c>
       <c r="K17">
-        <v>0.09547738693467336</v>
+        <v>0.09797822706065319</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02177554438860971</v>
+        <v>0.02332814930015552</v>
       </c>
       <c r="N17">
-        <v>0.001675041876046901</v>
+        <v>0.003110419906687403</v>
       </c>
       <c r="O17">
-        <v>0.07872696817420435</v>
+        <v>0.07776049766718507</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1306532663316583</v>
+        <v>0.1259720062208398</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0125</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.20625</v>
+        <v>0.2011494252873563</v>
       </c>
       <c r="I18">
-        <v>0.0625</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="J18">
-        <v>0.38125</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="K18">
-        <v>0.11875</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00625</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="N18">
-        <v>0.00625</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="O18">
-        <v>0.08125</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1264367816091954</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01916932907348243</v>
+        <v>0.01869857890800299</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2196485623003195</v>
+        <v>0.2146596858638743</v>
       </c>
       <c r="I19">
-        <v>0.06469648562300319</v>
+        <v>0.06357516828721017</v>
       </c>
       <c r="J19">
-        <v>0.3578274760383386</v>
+        <v>0.3642483171278983</v>
       </c>
       <c r="K19">
-        <v>0.1293929712460064</v>
+        <v>0.1278982797307405</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0231629392971246</v>
+        <v>0.02243829468960359</v>
       </c>
       <c r="N19">
-        <v>0.002396166134185303</v>
+        <v>0.002243829468960359</v>
       </c>
       <c r="O19">
-        <v>0.07108626198083066</v>
+        <v>0.07105459985041136</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1126198083067093</v>
+        <v>0.1151832460732984</v>
       </c>
     </row>
   </sheetData>
